--- a/tp2-A18/exemple/resultats/recuit_4.xlsx
+++ b/tp2-A18/exemple/resultats/recuit_4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\inf4705_labs\tp2-A18\exemple\resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82FC36A-8CE0-42BB-BF50-78E823AA92F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F69D49-5B59-43F1-B79F-C91E13527091}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16428" windowHeight="8664"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16428" windowHeight="8664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recuit_4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,27 +948,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="D289" sqref="D289"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9.9682807922363195E-4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>AVERAGE(A2:A11)</f>
+        <v>1.1970996856689434E-3</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -968,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.9950866699218698E-3</v>
       </c>
@@ -976,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9.9825859069824197E-4</v>
       </c>
@@ -984,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9.984970092773431E-4</v>
       </c>
@@ -992,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -1000,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.99484825134277E-3</v>
       </c>
@@ -1008,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9.984970092773431E-4</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.9941329956054601E-3</v>
       </c>
@@ -1024,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -1032,20 +1050,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9.9706649780273394E-4</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f t="shared" ref="D13:E13" si="0">AVERAGE(A13:A22)</f>
+        <v>1.5959501266479457E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -1053,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9.9515914916992101E-4</v>
       </c>
@@ -1061,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -1069,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.9934177398681602E-3</v>
       </c>
@@ -1077,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.9941329956054601E-3</v>
       </c>
@@ -1085,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.99484825134277E-3</v>
       </c>
@@ -1093,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9969940185546801E-3</v>
       </c>
@@ -1101,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.9950866699218698E-3</v>
       </c>
@@ -1109,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.9979476928710898E-3</v>
       </c>
@@ -1117,20 +1143,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9.9349021911621094E-4</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" ref="D24:E24" si="1">AVERAGE(A24:A33)</f>
+        <v>1.5945434570312478E-3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.9960403442382799E-3</v>
       </c>
@@ -1138,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.9946098327636701E-3</v>
       </c>
@@ -1146,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>9.9682807922363195E-4</v>
       </c>
@@ -1154,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1.9938945770263598E-3</v>
       </c>
@@ -1162,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -1170,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9.9825859069824197E-4</v>
       </c>
@@ -1178,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -1186,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.98602676391601E-3</v>
       </c>
@@ -1194,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.9914379119872999E-3</v>
       </c>
@@ -1202,20 +1236,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.9946098327636701E-3</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f t="shared" ref="D35:E35" si="2">AVERAGE(A35:A44)</f>
+        <v>1.3958692550659162E-3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.9941329956054601E-3</v>
       </c>
@@ -1223,7 +1265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.9946098327636701E-3</v>
       </c>
@@ -1231,7 +1273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -1239,7 +1281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -1247,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -1255,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9.9635124206542904E-4</v>
       </c>
@@ -1263,7 +1305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -1271,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9.99212265014648E-4</v>
       </c>
@@ -1279,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.9905567169189401E-3</v>
       </c>
@@ -1287,20 +1329,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <f t="shared" ref="D46:E46" si="3">AVERAGE(A46:A55)</f>
+        <v>9.9730491638183596E-5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -1308,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -1316,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1324,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1332,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1340,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1348,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1356,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1364,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1372,20 +1422,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <f t="shared" ref="D57:E57" si="4">AVERAGE(A57:A66)</f>
+        <v>2.992630004882811E-4</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -1393,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -1401,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
@@ -1409,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -1417,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -1425,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -1433,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -1441,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1449,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
@@ -1457,20 +1515,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <f t="shared" ref="D68:E68" si="5">AVERAGE(A68:A77)</f>
+        <v>3.9894580841064436E-4</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
@@ -1478,7 +1544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0</v>
       </c>
@@ -1486,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>9.99212265014648E-4</v>
       </c>
@@ -1494,7 +1560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -1502,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>9.9802017211913997E-4</v>
       </c>
@@ -1510,7 +1576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>9.9515914916992101E-4</v>
       </c>
@@ -1518,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -1526,7 +1592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -1534,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -1542,20 +1608,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>9.65118408203125E-4</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <f t="shared" ref="D79:E79" si="6">AVERAGE(A79:A88)</f>
+        <v>2.9602050781249998E-4</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0</v>
       </c>
@@ -1563,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0</v>
       </c>
@@ -1571,7 +1645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0</v>
       </c>
@@ -1579,7 +1653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
@@ -1587,7 +1661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0</v>
       </c>
@@ -1595,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0</v>
       </c>
@@ -1603,7 +1677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -1611,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0</v>
       </c>
@@ -1619,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -1627,20 +1701,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <f t="shared" ref="D90:E90" si="7">AVERAGE(A90:A99)</f>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0</v>
       </c>
@@ -1648,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0</v>
       </c>
@@ -1656,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0</v>
       </c>
@@ -1664,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0</v>
       </c>
@@ -1672,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0</v>
       </c>
@@ -1680,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0</v>
       </c>
@@ -1688,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0</v>
       </c>
@@ -1696,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0</v>
       </c>
@@ -1704,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0</v>
       </c>
@@ -1712,20 +1794,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <f t="shared" ref="D101:E101" si="8">AVERAGE(A101:A110)</f>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -1733,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0</v>
       </c>
@@ -1741,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0</v>
       </c>
@@ -1749,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0</v>
       </c>
@@ -1757,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0</v>
       </c>
@@ -1765,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0</v>
       </c>
@@ -1773,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0</v>
       </c>
@@ -1781,7 +1871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0</v>
       </c>
@@ -1789,7 +1879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0</v>
       </c>
@@ -1797,20 +1887,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0</v>
       </c>
       <c r="B112">
         <v>73</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <f t="shared" ref="D112:E112" si="9">AVERAGE(A112:A121)</f>
+        <v>9.9825859069824202E-5</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="9"/>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0</v>
       </c>
@@ -1818,7 +1916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0</v>
       </c>
@@ -1826,7 +1924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0</v>
       </c>
@@ -1834,7 +1932,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>9.9825859069824197E-4</v>
       </c>
@@ -1842,7 +1940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0</v>
       </c>
@@ -1850,7 +1948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0</v>
       </c>
@@ -1858,7 +1956,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0</v>
       </c>
@@ -1866,7 +1964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0</v>
       </c>
@@ -1874,7 +1972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0</v>
       </c>
@@ -1882,20 +1980,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>9.9682807922363195E-4</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <f t="shared" ref="D123:E123" si="10">AVERAGE(A123:A132)</f>
+        <v>2.9926538467407145E-3</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -1903,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1.9998550415039002E-3</v>
       </c>
@@ -1911,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1.9946098327636701E-3</v>
       </c>
@@ -1919,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1.99484825134277E-3</v>
       </c>
@@ -1927,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1.9946098327636701E-3</v>
       </c>
@@ -1935,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2.9916763305664002E-3</v>
       </c>
@@ -1943,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1.9946098327636701E-3</v>
       </c>
@@ -1951,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1.19705200195312E-2</v>
       </c>
@@ -1959,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2.9919147491455E-3</v>
       </c>
@@ -1967,20 +2073,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1.9950866699218698E-3</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <f t="shared" ref="D134:E134" si="11">AVERAGE(A134:A143)</f>
+        <v>2.592539787292476E-3</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1.99484825134277E-3</v>
       </c>
@@ -1988,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1.9922256469726502E-3</v>
       </c>
@@ -1996,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1.9943714141845699E-3</v>
       </c>
@@ -2004,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1.9943714141845699E-3</v>
       </c>
@@ -2012,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1.9938945770263598E-3</v>
       </c>
@@ -2020,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2.98953056335449E-3</v>
       </c>
@@ -2028,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3.9899349212646398E-3</v>
       </c>
@@ -2036,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2.9919147491455E-3</v>
       </c>
@@ -2044,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3.9892196655273403E-3</v>
       </c>
@@ -2052,20 +2166,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1.9915103912353498E-3</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D145">
+        <f>AVERAGE(A145:A154)</f>
+        <v>2.5952100753784133E-3</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ref="D145:E145" si="12">AVERAGE(B145:B154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1.99484825134277E-3</v>
       </c>
@@ -2073,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1.9938945770263598E-3</v>
       </c>
@@ -2081,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1.99484825134277E-3</v>
       </c>
@@ -2089,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1.9943714141845699E-3</v>
       </c>
@@ -2097,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2.9916763305664002E-3</v>
       </c>
@@ -2105,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2.9921531677245998E-3</v>
       </c>
@@ -2113,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2.9919147491455E-3</v>
       </c>
@@ -2121,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>4.0149688720703099E-3</v>
       </c>
@@ -2129,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2.9919147491455E-3</v>
       </c>
@@ -2137,20 +2259,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <f t="shared" ref="D156:E156" si="13">AVERAGE(A156:A165)</f>
+        <v>2.9923915863037102E-4</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0</v>
       </c>
@@ -2158,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0</v>
       </c>
@@ -2166,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0</v>
       </c>
@@ -2174,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0</v>
       </c>
@@ -2182,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -2190,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2198,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0</v>
       </c>
@@ -2206,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0</v>
       </c>
@@ -2214,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>9.9802017211913997E-4</v>
       </c>
@@ -2222,20 +2352,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>0</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <f t="shared" ref="D167:E167" si="14">AVERAGE(A167:A176)</f>
+        <v>3.9908885955810527E-4</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2243,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2251,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0</v>
       </c>
@@ -2259,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2267,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0</v>
       </c>
@@ -2275,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0</v>
       </c>
@@ -2283,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>0</v>
       </c>
@@ -2291,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0</v>
       </c>
@@ -2299,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>9.987354278564451E-4</v>
       </c>
@@ -2307,20 +2445,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>0</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <f t="shared" ref="D178:E178" si="15">AVERAGE(A178:A187)</f>
+        <v>3.9842128753662091E-4</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="15"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>9.9658966064453103E-4</v>
       </c>
@@ -2328,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2336,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0</v>
       </c>
@@ -2344,7 +2490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>0</v>
       </c>
@@ -2352,7 +2498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>9.9325180053710894E-4</v>
       </c>
@@ -2360,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0</v>
       </c>
@@ -2368,7 +2514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>9.9682807922363195E-4</v>
       </c>
@@ -2376,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>0</v>
       </c>
@@ -2384,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0</v>
       </c>
@@ -2392,20 +2538,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>0</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <f t="shared" ref="D189:E189" si="16">AVERAGE(A189:A198)</f>
+        <v>9.9730491638183596E-5</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0</v>
       </c>
@@ -2413,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0</v>
       </c>
@@ -2421,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0</v>
       </c>
@@ -2429,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -2437,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0</v>
       </c>
@@ -2445,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0</v>
       </c>
@@ -2453,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>0</v>
       </c>
@@ -2461,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>0</v>
       </c>
@@ -2469,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0</v>
       </c>
@@ -2477,20 +2631,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>0</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <f t="shared" ref="D200:E200" si="17">AVERAGE(A200:A209)</f>
+        <v>1.9955635070800773E-4</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="17"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>0</v>
       </c>
@@ -2498,7 +2660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0</v>
       </c>
@@ -2506,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>9.9802017211913997E-4</v>
       </c>
@@ -2514,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0</v>
       </c>
@@ -2522,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0</v>
       </c>
@@ -2530,7 +2692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2538,7 +2700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>0</v>
       </c>
@@ -2546,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>0</v>
       </c>
@@ -2554,7 +2716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>0</v>
       </c>
@@ -2562,20 +2724,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>0</v>
       </c>
       <c r="B211">
         <v>31</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <f t="shared" ref="D211:E211" si="18">AVERAGE(A211:A220)</f>
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>0</v>
       </c>
@@ -2583,7 +2753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>0</v>
       </c>
@@ -2591,7 +2761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>0</v>
       </c>
@@ -2599,7 +2769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>0</v>
       </c>
@@ -2607,7 +2777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>0</v>
       </c>
@@ -2615,7 +2785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>0</v>
       </c>
@@ -2623,7 +2793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>0</v>
       </c>
@@ -2631,7 +2801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>0</v>
       </c>
@@ -2639,7 +2809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>0</v>
       </c>
@@ -2647,20 +2817,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>0</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <f t="shared" ref="D222:E222" si="19">AVERAGE(A222:A231)</f>
+        <v>9.9432468414306467E-4</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2668,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2676,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2684,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -2692,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1.00064277648925E-3</v>
       </c>
@@ -2700,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>9.9420547485351497E-4</v>
       </c>
@@ -2708,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -2716,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>9.9682807922363195E-4</v>
       </c>
@@ -2724,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1.9648075103759701E-3</v>
       </c>
@@ -2732,20 +2910,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>9.9730491638183594E-4</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <f t="shared" ref="D233:E233" si="20">AVERAGE(A233:A242)</f>
+        <v>5.9354305267333919E-4</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0</v>
       </c>
@@ -2753,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>9.4413757324218696E-4</v>
       </c>
@@ -2761,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>0</v>
       </c>
@@ -2769,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>9.9682807922363195E-4</v>
       </c>
@@ -2777,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0</v>
       </c>
@@ -2785,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>0</v>
       </c>
@@ -2793,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -2801,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>9.9825859069824197E-4</v>
       </c>
@@ -2809,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1.0015964508056599E-3</v>
       </c>
@@ -2817,20 +3003,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>9.6893310546875E-4</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <f t="shared" ref="D244:E244" si="21">AVERAGE(A244:A253)</f>
+        <v>1.09117031097412E-3</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="21"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>9.9682807922363195E-4</v>
       </c>
@@ -2838,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>9.6702575683593696E-4</v>
       </c>
@@ -2846,7 +3040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2854,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>9.9658966064453103E-4</v>
       </c>
@@ -2862,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1.99484825134277E-3</v>
       </c>
@@ -2870,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>9.9825859069824197E-4</v>
       </c>
@@ -2878,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2886,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>9.949207305908201E-4</v>
       </c>
@@ -2894,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1.0001659393310499E-3</v>
       </c>
@@ -2902,20 +3096,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>9.9778175354003906E-4</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D255">
+        <f t="shared" ref="D255:E255" si="22">AVERAGE(A255:A264)</f>
+        <v>7.9820156097412079E-4</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>0</v>
       </c>
@@ -2923,7 +3125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>9.949207305908201E-4</v>
       </c>
@@ -2931,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>9.9658966064453103E-4</v>
       </c>
@@ -2939,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2.0010471343994102E-3</v>
       </c>
@@ -2947,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>0</v>
       </c>
@@ -2955,7 +3157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>0</v>
       </c>
@@ -2963,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -2971,7 +3173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>9.9658966064453103E-4</v>
       </c>
@@ -2979,7 +3181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -2987,20 +3189,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>0</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D266">
+        <f t="shared" ref="D266:E266" si="23">AVERAGE(A266:A275)</f>
+        <v>9.9754333496093704E-5</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="23"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>0</v>
       </c>
@@ -3008,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>0</v>
       </c>
@@ -3016,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>0</v>
       </c>
@@ -3024,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>0</v>
       </c>
@@ -3032,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>0</v>
       </c>
@@ -3040,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>0</v>
       </c>
@@ -3048,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -3056,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>0</v>
       </c>
@@ -3064,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>0</v>
       </c>
@@ -3072,28 +3282,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>0</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>0</v>
       </c>
       <c r="B278">
         <v>27</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D278">
+        <f t="shared" ref="D278:E278" si="24">AVERAGE(A278:A287)</f>
+        <v>9.9897384643554606E-5</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="24"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>0</v>
       </c>
@@ -3101,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>0</v>
       </c>
@@ -3109,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>0</v>
       </c>
@@ -3117,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>0</v>
       </c>
@@ -3125,7 +3335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>9.9897384643554601E-4</v>
       </c>
@@ -3133,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>0</v>
       </c>
@@ -3141,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>0</v>
       </c>
@@ -3149,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>0</v>
       </c>
@@ -3157,7 +3367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>0</v>
       </c>
@@ -3165,20 +3375,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>9.9754333496093707E-4</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D289">
+        <f>AVERAGE(A289:A298)</f>
+        <v>1.9645690917968742E-4</v>
+      </c>
+      <c r="E289">
+        <f>AVERAGE(B289:B298)</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>0</v>
       </c>
@@ -3186,7 +3404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>0</v>
       </c>
@@ -3194,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>0</v>
       </c>
@@ -3202,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>0</v>
       </c>
@@ -3210,7 +3428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>0</v>
       </c>
@@ -3218,7 +3436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>0</v>
       </c>
@@ -3226,7 +3444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>9.6702575683593696E-4</v>
       </c>
@@ -3234,12 +3452,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>0</v>
       </c>
       <c r="B297">
         <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
